--- a/クリックポスト発送情報/20200818224122/英子日本发货表格8.18.xlsx
+++ b/クリックポスト発送情報/20200818224122/英子日本发货表格8.18.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>序号</t>
   </si>
@@ -213,6 +213,38 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628570238041</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628570238030</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628570238026</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628570238015</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628570238004</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628570237993</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628570237982</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628570237971</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -364,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -464,13 +496,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1211,7 +1246,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1564,7 +1599,7 @@
       <c r="FY1" s="5"/>
     </row>
     <row r="2" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="13"/>
@@ -1574,22 +1609,24 @@
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="36" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
         <v>18</v>
@@ -1597,11 +1634,13 @@
       <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="K3" s="36" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="15">
@@ -1626,7 +1665,9 @@
       <c r="I4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="36" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="16" t="s">
@@ -1651,7 +1692,7 @@
       <c r="I5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="16" t="s">
@@ -1676,7 +1717,9 @@
       <c r="I6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="19" t="s">
@@ -1701,7 +1744,9 @@
       <c r="I7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="36" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="22" t="s">
@@ -1726,7 +1771,9 @@
       <c r="I8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="36" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="22" t="s">
@@ -1751,7 +1798,9 @@
       <c r="I9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="25" t="s">
@@ -1776,7 +1825,9 @@
       <c r="I10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="35"/>
+      <c r="K10" s="36" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="12" spans="1:181" ht="121.95" customHeight="1"/>
